--- a/Archivos Excel/concerts.xlsx
+++ b/Archivos Excel/concerts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\SkyDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0A3204-163A-466A-8CA5-E98D9E10FBD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D20A9E-4348-41CA-AF12-4FE107034D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{CB87172A-C663-4E83-B17B-808D6D73D2FA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve"> '2018-02-22'</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Friedrich-Ludwig-Jahn-Sportpark'</t>
+  </si>
+  <si>
+    <t>insert into concert values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -453,15 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B62634-5572-449A-B3F9-4C84D5B418A3}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3980</v>
       </c>
@@ -481,8 +494,21 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+      <c r="K1" t="str">
+        <f>CONCATENATE($O$1,A1,$Q$1,B1,$Q$1,C1,$Q$1,D1,$Q$1,E1,$P$1)</f>
+        <v>insert into concert values(3980, '2018-02-22', 'USA', 'San Francisco', 'Golden Park');</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3990</v>
       </c>
@@ -500,8 +526,12 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K9" si="0">CONCATENATE($O$1,A2,$Q$1,B2,$Q$1,C2,$Q$1,D2,$Q$1,E2,$P$1)</f>
+        <v>insert into concert values(3990, '2019-12-03', 'Spain', 'Madrid', 'Parque del Retiro');</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4470</v>
       </c>
@@ -521,8 +551,12 @@
         <v>13</v>
       </c>
       <c r="I4" s="2"/>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(4470, '2017-02-03', 'France', 'Paris' , 'Le Jardin du Luxembourg');</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4480</v>
       </c>
@@ -540,8 +574,12 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(4480, '2018-01-01', 'Spain', 'Madrid', 'Parque Rey Juan Carlos');</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1270</v>
       </c>
@@ -561,8 +599,12 @@
         <v>17</v>
       </c>
       <c r="I8" s="1"/>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(1270, '2018-02-05', 'France', 'Paris' , 'Le Jardin du Luxembourg');</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9200</v>
       </c>
@@ -580,6 +622,10 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(9200, '2014-03-31', 'Germany', 'Berlin' , 'Friedrich-Ludwig-Jahn-Sportpark');</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Archivos Excel/concerts.xlsx
+++ b/Archivos Excel/concerts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D20A9E-4348-41CA-AF12-4FE107034D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD76F81-0BC4-4316-8D90-AF704657634A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{CB87172A-C663-4E83-B17B-808D6D73D2FA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve"> '2018-02-22'</t>
   </si>
@@ -105,6 +105,66 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2019-03-01'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018-07-20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Barcelona'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Palau Sant Jordi'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'United Kingdom'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'London'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Lyceum Theatre'</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 781</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Russia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Moscow'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Loujniki Stadium'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2020-08-08'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018-12-31'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Campus UCM'</t>
+  </si>
+  <si>
+    <t>#Metallica band ID: 330</t>
+  </si>
+  <si>
+    <t>#ACDC band ID: 362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2020-02-20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Japan'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tokyo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Yoyogi Park'</t>
   </si>
 </sst>
 </file>
@@ -140,8 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B62634-5572-449A-B3F9-4C84D5B418A3}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +552,10 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3"/>
       <c r="K1" t="str">
         <f>CONCATENATE($O$1,A1,$Q$1,B1,$Q$1,C1,$Q$1,D1,$Q$1,E1,$P$1)</f>
         <v>insert into concert values(3980, '2018-02-22', 'USA', 'San Francisco', 'Golden Park');</v>
@@ -524,10 +586,10 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K9" si="0">CONCATENATE($O$1,A2,$Q$1,B2,$Q$1,C2,$Q$1,D2,$Q$1,E2,$P$1)</f>
+        <f t="shared" ref="K2:K17" si="0">CONCATENATE($O$1,A2,$Q$1,B2,$Q$1,C2,$Q$1,D2,$Q$1,E2,$P$1)</f>
         <v>insert into concert values(3990, '2019-12-03', 'Spain', 'Madrid', 'Parque del Retiro');</v>
       </c>
     </row>
@@ -547,10 +609,10 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4"/>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>insert into concert values(4470, '2017-02-03', 'France', 'Paris' , 'Le Jardin du Luxembourg');</v>
@@ -572,8 +634,8 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>insert into concert values(4480, '2018-01-01', 'Spain', 'Madrid', 'Parque Rey Juan Carlos');</v>
@@ -595,10 +657,10 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>insert into concert values(1270, '2018-02-05', 'France', 'Paris' , 'Le Jardin du Luxembourg');</v>
@@ -620,19 +682,147 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>insert into concert values(9200, '2014-03-31', 'Germany', 'Berlin' , 'Friedrich-Ludwig-Jahn-Sportpark');</v>
       </c>
     </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8437</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(8437, '2019-03-01', 'Spain', 'Barcelona', 'Palau Sant Jordi');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4372</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(4372, '2018-07-20', 'United Kingdom', 'London', 'Lyceum Theatre');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1834</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(1834, '2020-08-08', 'Russia', 'Moscow', 'Loujniki Stadium');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4900</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(4900, '2018-12-31', 'Spain', 'Madrid', 'Campus UCM');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7650</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into concert values(7650, '2020-02-20', 'Japan', 'Tokyo', 'Yoyogi Park');</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>